--- a/Excels/Asignaciones como se agrupan.xlsx
+++ b/Excels/Asignaciones como se agrupan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFF394B-2B94-4D9D-8744-A88D711EA8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85F6B20-B1F1-4CBC-AF99-2077149A440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9533E18D-AD9A-480C-8504-778D87F61C8A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
   <si>
     <t>GetAsignaciones/{UserID}/{ProyectoModulo}</t>
   </si>
@@ -44,466 +44,154 @@
     <t>Cable</t>
   </si>
   <si>
-    <t>r.RECUPIDJOBCARD,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.CLIENTE,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Documento,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.NOMBRE,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.DOMICILIO,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.CP,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.ENTRECALLE1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.ENTRECALLE2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Partido,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.LOCALIDAD,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.TELEFONO,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.GRXX,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.GRYY,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.ESTADOGAOS,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.PROYECTOMODULO,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.UserID,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.CAUSANTEC,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.SUBCON,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.FechaAsignada,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.FECHACAPTURA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.CodigoCierre,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.DESCRIPCION,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.CierraEnAPP,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.NoMostrarAPP,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Novedades,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.PROVINCIA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.ReclamoTecnicoID,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Motivos,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.FechaCita,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.MedioCita,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.NroSeriesExtras,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Evento1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.FechaEvento1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Evento2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.FechaEvento2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Evento3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.FechaEvento3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Evento4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.FechaEvento4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Observacion,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.TelefAlternativo1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.TelefAlternativo2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.TelefAlternativo3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.TelefAlternativo4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.ZONA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.Marcado,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               r.EmailCliente,</t>
-  </si>
-  <si>
     <t>TLC</t>
   </si>
   <si>
-    <t>r.CLIENTE,</t>
-  </si>
-  <si>
     <t>Prisma o SuperC</t>
   </si>
   <si>
-    <t xml:space="preserve">              r.Documento,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.NOMBRE,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.DOMICILIO,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.CP,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.ENTRECALLE1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.ENTRECALLE2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.Partido,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.LOCALIDAD,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.TELEFONO,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.GRXX,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.GRYY,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.ESTADOGAOS,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.PROYECTOMODULO,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.UserID,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.CAUSANTEC,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.SUBCON,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.FechaAsignada,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.FECHACAPTURA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.CodigoCierre,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.DESCRIPCION,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.CierraEnAPP,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.NoMostrarAPP,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.PROVINCIA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.Motivos,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.FechaCita,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.MedioCita,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.NroSeriesExtras,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.Evento1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.FechaEvento1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.Evento2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.FechaEvento2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.Evento3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.FechaEvento3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.Evento4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.FechaEvento4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.Observacion,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.TelefAlternativo1,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.TelefAlternativo2,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.TelefAlternativo3,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.TelefAlternativo4,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.ZONA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.Marcado,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              r.EmailCliente,</t>
-  </si>
-  <si>
     <t>Todo lo demás</t>
   </si>
   <si>
-    <t>r.Documento,</t>
-  </si>
-  <si>
-    <t>r.NOMBRE,</t>
-  </si>
-  <si>
-    <t>r.DOMICILIO,</t>
-  </si>
-  <si>
-    <t>r.CP,</t>
-  </si>
-  <si>
-    <t>r.ENTRECALLE1,</t>
-  </si>
-  <si>
-    <t>r.ENTRECALLE2,</t>
-  </si>
-  <si>
-    <t>r.Partido,</t>
-  </si>
-  <si>
-    <t>r.LOCALIDAD,</t>
-  </si>
-  <si>
-    <t>r.TELEFONO,</t>
-  </si>
-  <si>
-    <t>r.GRXX,</t>
-  </si>
-  <si>
-    <t>r.GRYY,</t>
-  </si>
-  <si>
-    <t>r.ESTADOGAOS,</t>
-  </si>
-  <si>
-    <t>r.PROYECTOMODULO,</t>
-  </si>
-  <si>
-    <t>r.UserID,</t>
-  </si>
-  <si>
-    <t>r.CAUSANTEC,</t>
-  </si>
-  <si>
-    <t>r.SUBCON,</t>
-  </si>
-  <si>
-    <t>r.FechaAsignada,</t>
-  </si>
-  <si>
-    <t>r.FECHACAPTURA,</t>
-  </si>
-  <si>
-    <t>r.CodigoCierre,</t>
-  </si>
-  <si>
-    <t>r.DESCRIPCION,</t>
-  </si>
-  <si>
-    <t>r.CierraEnAPP,</t>
-  </si>
-  <si>
-    <t>r.NoMostrarAPP,</t>
-  </si>
-  <si>
-    <t>r.Novedades,</t>
-  </si>
-  <si>
-    <t>r.PROVINCIA,</t>
-  </si>
-  <si>
-    <t>r.ReclamoTecnicoID,</t>
-  </si>
-  <si>
-    <t>r.Motivos,</t>
-  </si>
-  <si>
-    <t>r.FechaCita,</t>
-  </si>
-  <si>
-    <t>r.MedioCita,</t>
-  </si>
-  <si>
-    <t>r.NroSeriesExtras,</t>
-  </si>
-  <si>
-    <t>r.Evento1,</t>
-  </si>
-  <si>
-    <t>r.FechaEvento1,</t>
-  </si>
-  <si>
-    <t>r.Evento2,</t>
-  </si>
-  <si>
-    <t>r.FechaEvento2,</t>
-  </si>
-  <si>
-    <t>r.Evento3,</t>
-  </si>
-  <si>
-    <t>r.FechaEvento3,</t>
-  </si>
-  <si>
-    <t>r.Evento4,</t>
-  </si>
-  <si>
-    <t>r.FechaEvento4,</t>
-  </si>
-  <si>
-    <t>r.Observacion,</t>
-  </si>
-  <si>
-    <t>r.TelefAlternativo1,</t>
-  </si>
-  <si>
-    <t>r.TelefAlternativo2,</t>
-  </si>
-  <si>
-    <t>r.TelefAlternativo3,</t>
-  </si>
-  <si>
-    <t>r.TelefAlternativo4,</t>
-  </si>
-  <si>
-    <t>r.ZONA,</t>
-  </si>
-  <si>
-    <t>r.Marcado,</t>
-  </si>
-  <si>
-    <t>r.EmailCliente,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT CLIENTE, Documento, NOMBRE, DOMICILIO, CP, ENTRECALLE1, ENTRECALLE2, Partido, LOCALIDAD, TELEFONO, GRXX, GRYY, ESTADOGAOS, PROYECTOMODULO, UserID, CAUSANTEC, SUBCON, FechaAsignada, FECHACAPTURA, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  CodigoCierre, DESCRIPCION, CierraEnAPP, NoMostrarAPP, Novedades, PROVINCIA, ReclamoTecnicoID, Motivos, FechaCita, MedioCita, NroSeriesExtras, Evento1, FechaEvento1, Evento2, FechaEvento2, Evento3, FechaEvento3, Evento4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  FechaEvento4, Observacion, TelefAlternativo1, TelefAlternativo2, TelefAlternativo3, TelefAlternativo4, ZONA, Marcado, EmailCliente</t>
-  </si>
-  <si>
-    <t>FROM     AsignacionesOTs2</t>
-  </si>
-  <si>
-    <t>WHERE  (CLIENTE = '401797084') OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  (CLIENTE = '12982739')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT IDREGISTRO, SUBAGENTEMERCADO, RECUPIDJOBCARD, CLIENTE, NOMBRE, DOMICILIO, ENTRECALLE1, ENTRECALLE2, CP, ZTECNICO, PROVINCIA, LOCALIDAD, TELEFONO, GRXX, GRYY, DECO1, CMODEM1, FECHACARGA, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  ESTADO, FECHAENT, TECASIG, ZONA, IDR, MODELO, SMARTCARD, RUTA, ESTADO2, ESTADO3, TARIFA, PROYECTOMODULO, FECHACAPTURA, ESTADOGAOS, FECHACUMPLIDA, BAJASISTEMA, IDCABECERACERTIF, SUBCON, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  CAUSANTEC, PasaDefinitiva, FechaAsignada, HsCaptura, HsAsignada, HsCumplida, Observacion, LinkFoto, UserID, HsCumplidaTime, TerminalAsigna, UrlDni, UrlFirma, UrlDni2, UrlFirma2, EsCR, Autonumerico, ReclamoTecnicoID, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  ClienteTipoId, Documento, Partido, EmailCliente, ObservacionCaptura, FechaInicio, FechaEnvio, MarcaModeloId, Enviado, Cancelado, Recupero, CodigoCierre, VisitaTecnica, Novedades, PDFGenerado, FechaCumplidaTecnico, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  ArchivoOutGenerado, IDSuscripcion, ItemsID, SectorOperativo, IdTipoTrabajoRel, Motivos, Elegir, Fc_inicio_base, Fc_fin_base, FechaCita, MedioCita, NroSeriesExtras, FechaEvento1, FechaEvento2, FechaEvento3, FechaEvento4, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Evento1, Evento2, Evento3, Evento4, EscaMes, Escaanio, Estado4, LoteNro, FechaBaja, TipoCliente, Incentivo, Desconexion, Quincena, Impreso, IDUserCambio, FranjaEntrega, TelefAlternativo1, TelefAlternativo2, TelefAlternativo3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  TelefAlternativo4, Tag1, TipoTel1, TipoTel2, TipoTel3, TipoTel4, ValorUnico, DESCRIPCION, CierraEnAPP, NoMostrarAPP, CODIGOEQUIVALENCIA, DECO1DESCRIPCION, Marcado, DniRecibe, NombreRecibe, NroSerieEntrega, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  NroSerieEntrega1</t>
-  </si>
-  <si>
-    <t>WHERE  (CLIENTE = '12982739')</t>
+    <t>RECUPIDJOBCARD,</t>
+  </si>
+  <si>
+    <t>CLIENTE,</t>
+  </si>
+  <si>
+    <t>Documento,</t>
+  </si>
+  <si>
+    <t>NOMBRE,</t>
+  </si>
+  <si>
+    <t>DOMICILIO,</t>
+  </si>
+  <si>
+    <t>CP,</t>
+  </si>
+  <si>
+    <t>ENTRECALLE1,</t>
+  </si>
+  <si>
+    <t>ENTRECALLE2,</t>
+  </si>
+  <si>
+    <t>Partido,</t>
+  </si>
+  <si>
+    <t>LOCALIDAD,</t>
+  </si>
+  <si>
+    <t>TELEFONO,</t>
+  </si>
+  <si>
+    <t>GRXX,</t>
+  </si>
+  <si>
+    <t>GRYY,</t>
+  </si>
+  <si>
+    <t>ESTADOGAOS,</t>
+  </si>
+  <si>
+    <t>PROYECTOMODULO,</t>
+  </si>
+  <si>
+    <t>UserID,</t>
+  </si>
+  <si>
+    <t>CAUSANTEC,</t>
+  </si>
+  <si>
+    <t>SUBCON,</t>
+  </si>
+  <si>
+    <t>FechaAsignada,</t>
+  </si>
+  <si>
+    <t>FECHACAPTURA,</t>
+  </si>
+  <si>
+    <t>CodigoCierre,</t>
+  </si>
+  <si>
+    <t>DESCRIPCION,</t>
+  </si>
+  <si>
+    <t>CierraEnAPP,</t>
+  </si>
+  <si>
+    <t>NoMostrarAPP,</t>
+  </si>
+  <si>
+    <t>Novedades,</t>
+  </si>
+  <si>
+    <t>PROVINCIA,</t>
+  </si>
+  <si>
+    <t>Motivos,</t>
+  </si>
+  <si>
+    <t>FechaCita,</t>
+  </si>
+  <si>
+    <t>ReclamoTecnicoID,</t>
+  </si>
+  <si>
+    <t>MedioCita,</t>
+  </si>
+  <si>
+    <t>NroSeriesExtras,</t>
+  </si>
+  <si>
+    <t>Evento1,</t>
+  </si>
+  <si>
+    <t>FechaEvento1,</t>
+  </si>
+  <si>
+    <t>Evento2,</t>
+  </si>
+  <si>
+    <t>FechaEvento2,</t>
+  </si>
+  <si>
+    <t>Evento3,</t>
+  </si>
+  <si>
+    <t>FechaEvento3,</t>
+  </si>
+  <si>
+    <t>Evento4,</t>
+  </si>
+  <si>
+    <t>FechaEvento4,</t>
+  </si>
+  <si>
+    <t>Observacion,</t>
+  </si>
+  <si>
+    <t>TelefAlternativo1,</t>
+  </si>
+  <si>
+    <t>TelefAlternativo2,</t>
+  </si>
+  <si>
+    <t>TelefAlternativo3,</t>
+  </si>
+  <si>
+    <t>TelefAlternativo4,</t>
+  </si>
+  <si>
+    <t>ZONA,</t>
+  </si>
+  <si>
+    <t>Marcado,</t>
+  </si>
+  <si>
+    <t>EmailCliente,</t>
   </si>
 </sst>
 </file>
@@ -582,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -728,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -870,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,9 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E0EB7E-C6B3-4BD2-B5EF-F99CF3DEE4F2}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:L20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -899,701 +585,829 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>142</v>
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>+G4</f>
+        <v>CLIENTE,</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>143</v>
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>+L4&amp;G5</f>
+        <v>CLIENTE,Documento,</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L47" si="0">+L5&amp;G6</f>
+        <v>CLIENTE,Documento,NOMBRE,</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>145</v>
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>147</v>
+        <v>13</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>148</v>
+        <v>14</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>149</v>
+        <v>15</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>150</v>
+        <v>16</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>151</v>
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>153</v>
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>154</v>
+        <v>20</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>144</v>
+        <v>21</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>112</v>
+        <v>23</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>113</v>
+        <v>24</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>114</v>
+        <v>25</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>115</v>
+        <v>26</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>116</v>
+        <v>27</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>117</v>
+        <v>28</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>120</v>
+        <v>33</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>121</v>
+        <v>31</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>122</v>
+        <v>32</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="L43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="L44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,Marcado,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,Marcado,EmailCliente,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/Asignaciones como se agrupan.xlsx
+++ b/Excels/Asignaciones como se agrupan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Fleet\fleetdeliveryapp\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85F6B20-B1F1-4CBC-AF99-2077149A440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4C9033-3192-4AE0-86FB-F508B6B78A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9533E18D-AD9A-480C-8504-778D87F61C8A}"/>
   </bookViews>
@@ -568,7 +568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E0EB7E-C6B3-4BD2-B5EF-F99CF3DEE4F2}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -608,8 +610,8 @@
         <v>6</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>+G4</f>
-        <v>CLIENTE,</v>
+        <f>+A4</f>
+        <v>RECUPIDJOBCARD,</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -626,8 +628,8 @@
         <v>7</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>+L4&amp;G5</f>
-        <v>CLIENTE,Documento,</v>
+        <f>+L4&amp;A5</f>
+        <v>RECUPIDJOBCARD,CLIENTE,</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -644,8 +646,8 @@
         <v>8</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f t="shared" ref="L6:L47" si="0">+L5&amp;G6</f>
-        <v>CLIENTE,Documento,NOMBRE,</v>
+        <f t="shared" ref="L6:L50" si="0">+L5&amp;A6</f>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -663,7 +665,7 @@
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -681,7 +683,7 @@
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -699,7 +701,7 @@
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -717,7 +719,7 @@
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -735,7 +737,7 @@
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -753,7 +755,7 @@
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -771,7 +773,7 @@
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -789,7 +791,7 @@
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -807,7 +809,7 @@
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -825,7 +827,7 @@
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -843,7 +845,7 @@
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -861,7 +863,7 @@
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -879,7 +881,7 @@
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -897,7 +899,7 @@
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -915,7 +917,7 @@
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -933,7 +935,7 @@
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -951,7 +953,7 @@
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -969,7 +971,7 @@
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -987,7 +989,7 @@
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1005,7 +1007,7 @@
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1023,7 +1025,7 @@
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1041,7 +1043,7 @@
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1059,7 +1061,7 @@
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1077,7 +1079,7 @@
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1095,7 +1097,7 @@
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1113,7 +1115,7 @@
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1131,7 +1133,7 @@
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1149,7 +1151,7 @@
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1167,7 +1169,7 @@
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1185,7 +1187,7 @@
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1203,7 +1205,7 @@
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1221,7 +1223,7 @@
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1239,7 +1241,7 @@
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1257,7 +1259,7 @@
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1275,7 +1277,7 @@
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1293,7 +1295,7 @@
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1311,7 +1313,7 @@
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1329,7 +1331,7 @@
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1347,7 +1349,7 @@
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1365,7 +1367,7 @@
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,Marcado,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1383,7 +1385,7 @@
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,PROVINCIA,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,Marcado,EmailCliente,</v>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1396,18 +1398,30 @@
       <c r="J48" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,Marcado,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RECUPIDJOBCARD,CLIENTE,Documento,NOMBRE,DOMICILIO,CP,ENTRECALLE1,ENTRECALLE2,Partido,LOCALIDAD,TELEFONO,GRXX,GRYY,ESTADOGAOS,PROYECTOMODULO,UserID,CAUSANTEC,SUBCON,FechaAsignada,FECHACAPTURA,CodigoCierre,DESCRIPCION,CierraEnAPP,NoMostrarAPP,Novedades,PROVINCIA,ReclamoTecnicoID,Motivos,FechaCita,MedioCita,NroSeriesExtras,Evento1,FechaEvento1,Evento2,FechaEvento2,Evento3,FechaEvento3,Evento4,FechaEvento4,Observacion,TelefAlternativo1,TelefAlternativo2,TelefAlternativo3,TelefAlternativo4,ZONA,Marcado,EmailCliente,</v>
       </c>
     </row>
   </sheetData>
